--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45293</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45204</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45911.71143518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>45936.43067129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45709.46327546296</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44677</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44747</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45544.66417824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44740.37982638889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44565</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>45547.40465277778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44460</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45792.64822916667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44327</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44299</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44327</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44455.61589120371</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44533</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44532.66270833334</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44439.65362268518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44739</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44455.61668981481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>44386.47817129629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44357</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44747</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44314</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44743</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44539.41717592593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>44853</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44585.77927083334</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44455.67060185185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>44421</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>44853</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>44343.65755787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>44624</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>44621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44826.43283564815</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44624</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>44739</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44739</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>44826.45150462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>44606</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44606</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44386</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>44888</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>44257</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44886.69478009259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44565.71951388889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44606.57155092592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>45419.79274305556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>44959.33334490741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>45775.66797453703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>45359</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44888.55878472222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>45702</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>45617.4812962963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>45468.63356481482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>45107</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>45182.28321759259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>45126</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>45769</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>45205</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44985</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>45769</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44888.51291666667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>45122.73332175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44847.3783912037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>45365.59902777777</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>45028</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>45384.36355324074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44852.52524305556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>45205</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45665.44925925926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>45762</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>45363.44353009259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>45653.49950231481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>45727</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45300</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>45617.46487268519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45653.50658564815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45691.32311342593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45798.84574074074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45141.54603009259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45250.63565972223</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45798.84240740741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45531.61946759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>45236</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45205</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45300</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44678.64928240741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45304.77090277777</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45147.49393518519</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45840.49706018518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45558.61712962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45812.40204861111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45891.68484953704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>45146.61756944445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>45895.65793981482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>45553.66359953704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>45586</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>45586</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45897.60457175926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44482.87444444445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>45819.52043981481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45020</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45819.51636574074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>45819.51873842593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>45898.34591435185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>45898.35165509259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45358.45503472222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>45330</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>45903.66241898148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>45202</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>45202</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>45824.60515046296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>45909</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>45908</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>45909.50524305556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>45909.48194444444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>45824</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>45539.60888888889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>45812.39982638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>45911.59070601852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>45467.47898148148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>45912.47421296296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>45357</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>45912.46119212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>45912.47230324074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>45911</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>45912.46006944445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>45912.4656712963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>45827.63807870371</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>44271</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>45086</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45617.47054398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45918.46302083333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45831</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45919.57049768518</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44357</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45124</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44326.38244212963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45924.63803240741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>44482.86331018519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45924.58982638889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>44481</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>45359</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44358</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45749.91583333333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>45838.53831018518</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>45838.5571412037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45936.65857638889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45707.42396990741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>45691.31946759259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>45936.43357638889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>45936.43239583333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45159</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44900.64357638889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45552.56195601852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>45707.74923611111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>45688</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45356.55128472222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>45946.3859375</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45848.38053240741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45552.55456018518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45198</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>45838</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>45189</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>45859.54253472222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>45951.41956018518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>45860.53292824074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45860.50186342592</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>45951</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>45365.6053125</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>45572.59581018519</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44477.45230324074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45707.57689814815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>45953</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45771.64927083333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44606</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>45958.57077546296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45960.41339120371</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45198.65056712963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>45393.69707175926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>45000.69547453704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>45839</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>44985.61200231482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>44985.61400462963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>45009</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45539.57982638889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>45454</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>45951</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44705.66621527778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>45967.59869212963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45967</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45966.45513888889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>45548</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>45548</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45551</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44705</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45537.66780092593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>45978.44596064815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>46021.37177083334</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>45097</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45978.45539351852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>45665.44402777778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>45379.65076388889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>46021.37421296296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>45980.60038194444</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>45980.59248842593</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>45146</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>45980.59481481482</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>45980.45703703703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>45982.61234953703</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44739</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45412.49434027778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>45357</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>45692.64164351852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45645</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>46020.661875</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>46030.42975694445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45372.33732638889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45357</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>44952.35163194445</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45707.40759259259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45993.40084490741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44981</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>45993.73243055555</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44623</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44460</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45076</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45393.70334490741</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>46035.61134259259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45467.67300925926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>45068</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>45386.39376157407</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>45033</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45077.65487268518</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>45077.65918981482</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>45996.63631944444</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>45159.56918981481</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>46000</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>45610</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>46000</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45616</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>46000</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>46006.38003472222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>46006.38694444444</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>45772.64790509259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>46049.55262731481</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>45316.66528935185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44966.38243055555</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>46051.54070601852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>45184</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>44999</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>45084.66478009259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>45229</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>45665.45333333333</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>44423</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>46057.44170138889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>44957</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17462,7 +17462,7 @@
         <v>46057</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>45275</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>46057.4528587963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>46056.53358796296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>45541</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>46059.59224537037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>45343</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>46030</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>46058</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>46058.60915509259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>45304.76762731482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>46045.44894675926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44578.50461805556</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>45468.62662037037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>45202.47221064815</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45593</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>44890</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>44890</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45364.65658564815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>45393.72498842593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>45763</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44851</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45372.34880787037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>44620.7546412037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>44981</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45379.6220949074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45126</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>44461.47802083333</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>45205</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>44671</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45356</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45365.60123842592</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45365.60304398148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45110.32493055556</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>45365.51081018519</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>45034.38628472222</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45680</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45574.53689814815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44524.29709490741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45033</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45548</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44900</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>45460.80543981482</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45156</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45363.45428240741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45077.65021990741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>45092.50385416667</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45161</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>45616.51119212963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>45408.68222222223</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44326</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45016.3665625</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44978.63289351852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>45372.40991898148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>45378.36734953704</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44994</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>45555.66153935185</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45184</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45205</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44957.66708333333</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44700</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45159</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45357</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45357</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44461</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45089</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45404</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44461.62759259259</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>45692.64210648148</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>45439</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45365.50953703704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45365.60637731481</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45204</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>45204</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>45600.35842592592</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>45161</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44565.70857638889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45198</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45282</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45775.66415509259</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>45001.48028935185</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>45782.36523148148</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>45698.68236111111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>45594.49311342592</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>45201.67722222222</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>45398.58857638889</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>45796.3731712963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45293</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45204</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45911.71143518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>45936.43067129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45709.46327546296</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44677</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44747</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45544.66417824074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44740.37982638889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44565</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>45547.40465277778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>45161</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44460</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45792.64822916667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44327</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44299</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44327</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44455.61589120371</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44533</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44532.66270833334</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44439.65362268518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44739</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44455.61668981481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>44386.47817129629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44357</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44747</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44314</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44743</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44539.41717592593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>44853</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44585.77927083334</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44455.67060185185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>44421</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>44853</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>44343.65755787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>44624</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>44621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44826.43283564815</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44624</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>44739</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44739</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>44826.45150462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>44606</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44606</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44386</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>44888</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>44257</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44886.69478009259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44565.71951388889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44606.57155092592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>45419.79274305556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>44959.33334490741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>45775.66797453703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>45359</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44888.55878472222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>45702</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>45617.4812962963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>45468.63356481482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>45107</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>45182.28321759259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>45126</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>45769</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>45205</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>45033</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44985</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>45769</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44888.51291666667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>45122.73332175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44847.3783912037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>45365.59902777777</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>45028</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>45384.36355324074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44852.52524305556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>45205</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45665.44925925926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>45762</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>45363.44353009259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>45653.49950231481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>45727</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45300</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>45617.46487268519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45653.50658564815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45691.32311342593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45798.84574074074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45141.54603009259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45250.63565972223</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45798.84240740741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45531.61946759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>45236</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45205</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45300</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44678.64928240741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45183</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45304.77090277777</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45147.49393518519</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45840.49706018518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45558.61712962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45812.40204861111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>45475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>45891.68484953704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>45146.61756944445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>45895.65793981482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>45553.66359953704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>45586</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>45586</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45897.60457175926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44482.87444444445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>45819.52043981481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45020</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45819.51636574074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>45819.51873842593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>45898.34591435185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>45898.35165509259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45358.45503472222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>45330</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>45903.66241898148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>45202</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>45202</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>45824.60515046296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>45909</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>45908</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>45909.50524305556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>45909.48194444444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>45824</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>45539.60888888889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>45812.39982638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>45911.59070601852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>45467.47898148148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>45912.47421296296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>45357</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>45912.46119212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>45912.47230324074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>45911</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>45912.46006944445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>45912.4656712963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>45827.63807870371</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>44271</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>45086</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45617.47054398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45918.46302083333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45831</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45919.57049768518</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44357</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45124</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>44326.38244212963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45924.63803240741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>44482.86331018519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45924.58982638889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>44481</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>45359</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44358</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45749.91583333333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>45838.53831018518</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>45838.5571412037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45936.65857638889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45707.42396990741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>45691.31946759259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>45936.43357638889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>45936.43239583333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45159</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44900.64357638889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45552.56195601852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>45707.74923611111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>45688</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45356.55128472222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>45946.3859375</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45848.38053240741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45552.55456018518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45198</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>45838</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>45189</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>45859.54253472222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>45951.41956018518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>45860.53292824074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45860.50186342592</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>45951</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>45365.6053125</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>45572.59581018519</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44477.45230324074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45707.57689814815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>45953</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45771.64927083333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44606</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>45958.57077546296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45960.41339120371</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45198.65056712963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>45393.69707175926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>45000.69547453704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>45839</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>44985.61200231482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>44985.61400462963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>45009</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45539.57982638889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>45454</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>45951</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44705.66621527778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>45967.59869212963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45967</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45966.45513888889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>45548</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>45548</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45551</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44705</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45537.66780092593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>45978.44596064815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>46021.37177083334</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>45097</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45978.45539351852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>45665.44402777778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>45379.65076388889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>46021.37421296296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>45980.60038194444</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>45980.59248842593</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>45146</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>45980.59481481482</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>45980.45703703703</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>45982.61234953703</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44739</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45412.49434027778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>45357</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>45692.64164351852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45645</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>46020.661875</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>46030.42975694445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45372.33732638889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45357</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>44952.35163194445</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45707.40759259259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44550</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45993.40084490741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44981</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>45993.73243055555</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44623</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44460</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45076</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45393.70334490741</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>46035.61134259259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45467.67300925926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>45068</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>45386.39376157407</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>45033</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45077.65487268518</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>45077.65918981482</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>45996.63631944444</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>45159.56918981481</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>46000</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>45610</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>46000</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44721</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45616</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>46000</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>46006.38003472222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>46006.38694444444</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>45772.64790509259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>46049.55262731481</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>45316.66528935185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44966.38243055555</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>46051.54070601852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>45184</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>44999</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>45084.66478009259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>45229</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>45665.45333333333</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>44423</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>46057.44170138889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>44957</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17462,7 +17462,7 @@
         <v>46057</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>45275</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>46057.4528587963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>46056.53358796296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>45541</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>46059.59224537037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>45343</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>46030</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>46058</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>46058.60915509259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>45304.76762731482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>46045.44894675926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44578.50461805556</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>45468.62662037037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>45202.47221064815</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45593</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>44890</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>44890</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45364.65658564815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>45393.72498842593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>45763</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44851</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45372.34880787037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>44620.7546412037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>44981</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45379.6220949074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45126</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>44461.47802083333</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>45205</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>44671</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45356</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45365.60123842592</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45365.60304398148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45110.32493055556</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>45365.51081018519</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>45034.38628472222</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45680</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45574.53689814815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44524.29709490741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45033</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45548</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44900</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>45460.80543981482</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45156</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45363.45428240741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45077.65021990741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>45092.50385416667</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45161</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>45616.51119212963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>45408.68222222223</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44326</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45016.3665625</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44978.63289351852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>45372.40991898148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>45378.36734953704</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44994</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>45555.66153935185</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45184</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45205</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44957.66708333333</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44700</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45159</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45357</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45357</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44461</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45089</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45404</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44461.62759259259</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>45692.64210648148</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>45439</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45365.50953703704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45365.60637731481</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45204</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>45204</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>45600.35842592592</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>45161</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44565.70857638889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45198</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45282</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45775.66415509259</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>45001.48028935185</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>45782.36523148148</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>45698.68236111111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>45594.49311342592</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>45201.67722222222</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>45398.58857638889</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>45796.3731712963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45293</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45204</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45911.71143518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>45936.43067129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45709.46327546296</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44677</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45792.64822916667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>44747</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>45544.66417824074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>45461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44740.37982638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44565</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45547.40465277778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45161</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44460</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44327</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44299</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44327</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44455.61589120371</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44533</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2460,14 +2460,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 45283-2021</t>
+          <t>A 69843-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44439.65362268518</v>
+        <v>44532.66270833334</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2517,14 +2517,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 69843-2021</t>
+          <t>A 45283-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44532.66270833334</v>
+        <v>44439.65362268518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>44461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44739</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44455.61668981481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>44377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>44386.47817129629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44357</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44747</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44314</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44743</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44539.41717592593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>44853</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>44585.77927083334</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>44455.67060185185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>44421</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3496,14 +3496,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 25753-2021</t>
+          <t>A 48311-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44343.65755787037</v>
+        <v>44853</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3553,14 +3553,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 10683-2022</t>
+          <t>A 25753-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44624</v>
+        <v>44343.65755787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3610,14 +3610,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10022-2022</t>
+          <t>A 10683-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44621</v>
+        <v>44624</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>44826.43283564815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3724,14 +3724,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 10682-2022</t>
+          <t>A 10022-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44624</v>
+        <v>44621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3781,14 +3781,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 48311-2022</t>
+          <t>A 10682-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44853</v>
+        <v>44624</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>44739</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>44739</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>44826.45150462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>44606</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44606</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44386</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>44888</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>44257</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44886.69478009259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44565.71951388889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44606.57155092592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44959.33334490741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>45419.79274305556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>45775.66797453703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>45359</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44888.55878472222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45007</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>45702</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>45617.4812962963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5045,14 +5045,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26241-2024</t>
+          <t>A 31938-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45468.63356481482</v>
+        <v>45107</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5102,14 +5102,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 31938-2023</t>
+          <t>A 26241-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45107</v>
+        <v>45468.63356481482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>45126</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5216,14 +5216,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42795-2023</t>
+          <t>A 19362-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45182.28321759259</v>
+        <v>45769</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5273,14 +5273,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 19362-2025</t>
+          <t>A 49437-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45769</v>
+        <v>45205</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5292,8 +5292,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5330,14 +5335,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 16960-2023</t>
+          <t>A 42795-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45033</v>
+        <v>45182.28321759259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5350,7 +5355,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5387,14 +5392,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 49437-2023</t>
+          <t>A 6305-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45205</v>
+        <v>45698.68236111111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5406,13 +5411,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5456,7 +5456,7 @@
         <v>44985</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5506,14 +5506,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 32750-2023</t>
+          <t>A 16960-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45122.73332175926</v>
+        <v>45033</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5563,14 +5563,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 19335-2025</t>
+          <t>A 54399-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45769</v>
+        <v>45617.46487268519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7.1</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5620,14 +5620,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55688-2022</t>
+          <t>A 32750-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44888.51291666667</v>
+        <v>45122.73332175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5677,14 +5677,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10354-2024</t>
+          <t>A 19335-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45365.59902777777</v>
+        <v>45769</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,13 +5696,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>3.3</v>
+        <v>7.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5739,14 +5734,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46095-2022</t>
+          <t>A 55688-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44847.3783912037</v>
+        <v>44888.51291666667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5759,7 +5754,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5796,14 +5791,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 16308-2023</t>
+          <t>A 46095-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45028</v>
+        <v>44847.3783912037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5816,7 +5811,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5853,14 +5848,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 12655-2024</t>
+          <t>A 10354-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45384.36355324074</v>
+        <v>45365.59902777777</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,8 +5867,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5910,14 +5910,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 54399-2024</t>
+          <t>A 48999-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45617.46487268519</v>
+        <v>45594.49311342592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5967,14 +5967,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 48999-2024</t>
+          <t>A 47118-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45594.49311342592</v>
+        <v>45201.67722222222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6024,14 +6024,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49427-2023</t>
+          <t>A 16308-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45205</v>
+        <v>45028</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6043,13 +6043,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6086,14 +6081,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47118-2023</t>
+          <t>A 49484-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45201.67722222222</v>
+        <v>45205</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6105,8 +6100,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6143,14 +6143,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47125-2022</t>
+          <t>A 14901-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44852.52524305556</v>
+        <v>45398.58857638889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6200,14 +6200,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 759-2025</t>
+          <t>A 52267-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45665.44925925926</v>
+        <v>45608</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6219,13 +6219,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6262,14 +6257,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 14901-2024</t>
+          <t>A 39441-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45398.58857638889</v>
+        <v>45889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6282,7 +6277,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>10.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6319,14 +6314,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61297-2025</t>
+          <t>A 39427-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46000</v>
+        <v>45889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6339,7 +6334,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6376,14 +6371,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 49484-2023</t>
+          <t>A 12655-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45205</v>
+        <v>45384.36355324074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6395,13 +6390,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6438,14 +6428,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 9873-2024</t>
+          <t>A 33125-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45363.44353009259</v>
+        <v>45840.49706018518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6458,7 +6448,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6495,14 +6485,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52267-2024</t>
+          <t>A 49427-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45608</v>
+        <v>45205</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6514,8 +6504,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6552,14 +6547,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 39441-2025</t>
+          <t>A 47125-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45889</v>
+        <v>44852.52524305556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6572,7 +6567,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>10.1</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6609,14 +6604,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 39427-2025</t>
+          <t>A 759-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45889</v>
+        <v>45665.44925925926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6628,8 +6623,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6666,14 +6666,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 33125-2025</t>
+          <t>A 39927-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45840.49706018518</v>
+        <v>45891.68484953704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6730,7 +6730,7 @@
         <v>45796.3731712963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6780,14 +6780,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 18438-2025</t>
+          <t>A 61948-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45762</v>
+        <v>45653.50658564815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6799,13 +6799,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6842,14 +6837,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 61948-2024</t>
+          <t>A 40466-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45653.50658564815</v>
+        <v>45895.65793981482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6862,7 +6857,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6899,14 +6894,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 703-2024</t>
+          <t>A 9873-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45300</v>
+        <v>45363.44353009259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6919,7 +6914,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6963,7 +6958,7 @@
         <v>45798.84574074074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7013,14 +7008,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11565-2025</t>
+          <t>A 56804-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45727</v>
+        <v>45978.44596064815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7033,7 +7028,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7070,14 +7065,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 39927-2025</t>
+          <t>A 40888-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45891.68484953704</v>
+        <v>45897.60457175926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7090,7 +7085,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7127,14 +7122,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 61946-2024</t>
+          <t>A 24708-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45653.49950231481</v>
+        <v>45798.84240740741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7147,7 +7142,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>6.7</v>
+        <v>11.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7184,14 +7179,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 24708-2025</t>
+          <t>A 56812-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45798.84240740741</v>
+        <v>45978.45539351852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7203,8 +7198,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>11.7</v>
+        <v>19.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7248,7 +7248,7 @@
         <v>45531.61946759259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7298,14 +7298,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40466-2025</t>
+          <t>A 18438-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45895.65793981482</v>
+        <v>45762</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7317,8 +7317,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7355,14 +7360,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 24901-2024</t>
+          <t>A 703-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45461</v>
+        <v>45300</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7375,7 +7380,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7412,14 +7417,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 40888-2025</t>
+          <t>A 11565-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45897.60457175926</v>
+        <v>45727</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7437,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7469,14 +7474,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 4988-2025</t>
+          <t>A 57508-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45691.32311342593</v>
+        <v>45980.60038194444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7489,7 +7494,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7526,14 +7531,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 34780-2023</t>
+          <t>A 41003-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45141.54603009259</v>
+        <v>45898.34591435185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7546,7 +7551,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7583,14 +7588,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 58354-2023</t>
+          <t>A 61946-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45250.63565972223</v>
+        <v>45653.49950231481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7603,7 +7608,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>6.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7640,14 +7645,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 54692-2023</t>
+          <t>A 41008-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45236</v>
+        <v>45898.35165509259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7660,7 +7665,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7697,14 +7702,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 41003-2025</t>
+          <t>A 42071-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45898.34591435185</v>
+        <v>45903.66241898148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7717,7 +7722,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7754,14 +7759,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 40897-2024</t>
+          <t>A 24901-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45558.61712962963</v>
+        <v>45461</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7774,7 +7779,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7811,14 +7816,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 41008-2025</t>
+          <t>A 57501-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45898.35165509259</v>
+        <v>45980.59248842593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7831,7 +7836,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7868,14 +7873,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27205-2025</t>
+          <t>A 4988-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45812.40204861111</v>
+        <v>45691.32311342593</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7893,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7925,14 +7930,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 42071-2025</t>
+          <t>A 34780-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45903.66241898148</v>
+        <v>45141.54603009259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7950,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7982,14 +7987,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 62090-2025</t>
+          <t>A 57504-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46006.38003472222</v>
+        <v>45980.59481481482</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8007,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8039,14 +8044,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 701-2024</t>
+          <t>A 58354-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45300</v>
+        <v>45250.63565972223</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8064,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8096,14 +8101,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 17380-2022</t>
+          <t>A 40897-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44678.64928240741</v>
+        <v>45558.61712962963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8121,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8153,14 +8158,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 43291-2023</t>
+          <t>A 43160-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45183</v>
+        <v>45909</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8172,8 +8177,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8210,14 +8220,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28543-2025</t>
+          <t>A 42870-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45819.52043981481</v>
+        <v>45908</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8240,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8267,14 +8277,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 1474-2024</t>
+          <t>A 54692-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45304.77090277777</v>
+        <v>45236</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8297,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8324,14 +8334,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28540-2025</t>
+          <t>A 27205-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45819.51636574074</v>
+        <v>45812.40204861111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8354,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8381,14 +8391,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 28541-2025</t>
+          <t>A 43019-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45819.51873842593</v>
+        <v>45909.50524305556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8411,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8438,14 +8448,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 35597-2023</t>
+          <t>A 43008-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45147.49393518519</v>
+        <v>45909.48194444444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8468,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8495,14 +8505,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 43160-2025</t>
+          <t>A 27204-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45909</v>
+        <v>45812.39982638889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8514,13 +8524,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8557,14 +8562,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 42870-2025</t>
+          <t>A 57420-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45908</v>
+        <v>45980.45703703703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8577,7 +8582,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8614,14 +8619,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 43019-2025</t>
+          <t>A 43527-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45909.50524305556</v>
+        <v>45911.59070601852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8634,7 +8639,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8671,14 +8676,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 43008-2025</t>
+          <t>A 43757-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45909.48194444444</v>
+        <v>45912.47421296296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8691,7 +8696,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8728,14 +8733,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 29391-2025</t>
+          <t>A 58123-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45824.60515046296</v>
+        <v>45982.61234953703</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8747,13 +8752,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8790,14 +8790,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 27714-2024</t>
+          <t>A 43747-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45475</v>
+        <v>45912.46119212963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8847,14 +8847,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 62095-2025</t>
+          <t>A 43754-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46006.38694444444</v>
+        <v>45912.47230324074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8904,14 +8904,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35417-2023</t>
+          <t>A 28543-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45146.61756944445</v>
+        <v>45819.52043981481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8961,14 +8961,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 29469-2025</t>
+          <t>A 43528-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45824</v>
+        <v>45911</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>16.8</v>
+        <v>0.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9023,14 +9023,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 37155-2024</t>
+          <t>A 43746-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45539.60888888889</v>
+        <v>45912.46006944445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9080,14 +9080,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 27204-2025</t>
+          <t>A 43750-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45812.39982638889</v>
+        <v>45912.4656712963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9137,14 +9137,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 5090-2026</t>
+          <t>A 701-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46049.55262731481</v>
+        <v>45300</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9194,14 +9194,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 43527-2025</t>
+          <t>A 28540-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45911.59070601852</v>
+        <v>45819.51636574074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9251,14 +9251,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 40017-2024</t>
+          <t>A 28541-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45553.66359953704</v>
+        <v>45819.51873842593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9308,14 +9308,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 43757-2025</t>
+          <t>A 17380-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45912.47421296296</v>
+        <v>44678.64928240741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9365,14 +9365,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47325-2024</t>
+          <t>A 43291-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45586</v>
+        <v>45183</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9384,13 +9384,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>18.6</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9427,14 +9422,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 47330-2024</t>
+          <t>A 1474-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45586</v>
+        <v>45304.77090277777</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9446,13 +9441,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9489,14 +9479,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 49133-2022</t>
+          <t>A 35597-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44860</v>
+        <v>45147.49393518519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9509,7 +9499,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9546,14 +9536,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 43747-2025</t>
+          <t>A 44866-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45912.46119212963</v>
+        <v>45918.46302083333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9566,7 +9556,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9603,14 +9593,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 43754-2025</t>
+          <t>A 29391-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45912.47230324074</v>
+        <v>45824.60515046296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9622,8 +9612,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>6.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9660,14 +9655,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 43528-2025</t>
+          <t>A 45212-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45911</v>
+        <v>45919.57049768518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9679,13 +9674,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9722,14 +9712,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 30435-2025</t>
+          <t>A 27714-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45827.63807870371</v>
+        <v>45475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9742,7 +9732,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9779,14 +9769,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 43746-2025</t>
+          <t>A 29469-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45912.46006944445</v>
+        <v>45824</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9798,8 +9788,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>6.9</v>
+        <v>16.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9836,14 +9831,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 43750-2025</t>
+          <t>A 37155-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45912.4656712963</v>
+        <v>45539.60888888889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9856,7 +9851,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9893,14 +9888,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 5719-2026</t>
+          <t>A 35417-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46051.54070601852</v>
+        <v>45146.61756944445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9913,7 +9908,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9950,14 +9945,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 31087-2025</t>
+          <t>A 46162-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45831</v>
+        <v>45924.63803240741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9969,13 +9964,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10012,14 +10002,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 57174-2021</t>
+          <t>A 40017-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44482.87444444445</v>
+        <v>45553.66359953704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10032,7 +10022,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10069,14 +10059,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 44866-2025</t>
+          <t>A 47325-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45918.46302083333</v>
+        <v>45586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10088,8 +10078,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>18.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10126,14 +10121,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 15481-2023</t>
+          <t>A 47330-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45020</v>
+        <v>45586</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10145,8 +10140,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10183,14 +10183,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 9193-2024</t>
+          <t>A 46126-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45358.45503472222</v>
+        <v>45924.58982638889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10202,13 +10202,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10245,14 +10240,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 5222-2024</t>
+          <t>A 49133-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45330</v>
+        <v>44860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10265,7 +10260,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10302,14 +10297,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 45212-2025</t>
+          <t>A 30435-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45919.57049768518</v>
+        <v>45827.63807870371</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10322,7 +10317,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10359,14 +10354,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 47296-2023</t>
+          <t>A 31087-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45202</v>
+        <v>45831</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10380,11 +10375,11 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10421,14 +10416,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 47309-2023</t>
+          <t>A 57174-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45202</v>
+        <v>44482.87444444445</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10440,13 +10435,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10483,14 +10473,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 46162-2025</t>
+          <t>A 15481-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45924.63803240741</v>
+        <v>45020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10503,7 +10493,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10540,14 +10530,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 46126-2025</t>
+          <t>A 9193-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45924.58982638889</v>
+        <v>45358.45503472222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10559,8 +10549,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10597,14 +10592,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 32548-2025</t>
+          <t>A 5222-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45838.53831018518</v>
+        <v>45330</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10617,7 +10612,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10654,14 +10649,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 32554-2025</t>
+          <t>A 47296-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45838.5571412037</v>
+        <v>45202</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10673,8 +10668,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10711,14 +10711,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 25875-2024</t>
+          <t>A 47309-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45467.47898148148</v>
+        <v>45202</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10730,8 +10730,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10768,14 +10773,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 9068-2024</t>
+          <t>A 48728-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45357</v>
+        <v>45936.65857638889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10788,7 +10793,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10825,14 +10830,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 4913-2025</t>
+          <t>A 48560-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45688</v>
+        <v>45936.43357638889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10845,7 +10850,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10882,14 +10887,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 12936-2021</t>
+          <t>A 32548-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44271</v>
+        <v>45838.53831018518</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10902,7 +10907,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10939,14 +10944,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 34665-2025</t>
+          <t>A 32554-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45848.38053240741</v>
+        <v>45838.5571412037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10959,7 +10964,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10996,14 +11001,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 25103-2023</t>
+          <t>A 48559-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45086</v>
+        <v>45936.43239583333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11016,7 +11021,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11053,14 +11058,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 54403-2024</t>
+          <t>A 25875-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45617.47054398148</v>
+        <v>45467.47898148148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11073,7 +11078,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11110,14 +11115,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 48728-2025</t>
+          <t>A 9068-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45936.65857638889</v>
+        <v>45357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11130,7 +11135,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11167,14 +11172,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 32572-2025</t>
+          <t>A 12936-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45838</v>
+        <v>44271</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11187,7 +11192,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11224,14 +11229,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 48560-2025</t>
+          <t>A 25103-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45936.43357638889</v>
+        <v>45086</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11244,7 +11249,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11281,14 +11286,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35654-2025</t>
+          <t>A 54403-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45859.54253472222</v>
+        <v>45617.47054398148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11301,7 +11306,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11338,14 +11343,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 48559-2025</t>
+          <t>A 4913-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45936.43239583333</v>
+        <v>45688</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11358,7 +11363,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11395,14 +11400,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 28938-2021</t>
+          <t>A 34665-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44357</v>
+        <v>45848.38053240741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11415,7 +11420,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11452,14 +11457,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 32891-2023</t>
+          <t>A 28938-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45124</v>
+        <v>44357</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11472,7 +11477,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11509,14 +11514,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 22232-2021</t>
+          <t>A 50744-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44326.38244212963</v>
+        <v>45946.3859375</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11529,7 +11534,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11566,14 +11571,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 35740-2025</t>
+          <t>A 32891-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45860.53292824074</v>
+        <v>45124</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11586,7 +11591,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11623,14 +11628,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 35737-2025</t>
+          <t>A 22232-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45860.50186342592</v>
+        <v>44326.38244212963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11643,7 +11648,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11687,7 +11692,7 @@
         <v>44482.86331018519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11749,7 @@
         <v>45148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11806,7 @@
         <v>44481</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11851,14 +11856,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 9541-2024</t>
+          <t>A 32572-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45359</v>
+        <v>45838</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11871,7 +11876,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11908,14 +11913,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 29133-2021</t>
+          <t>A 35654-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44358</v>
+        <v>45859.54253472222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11927,13 +11932,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11970,14 +11970,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 16095-2025</t>
+          <t>A 51627-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45749.91583333333</v>
+        <v>45951.41956018518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12027,14 +12027,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 50744-2025</t>
+          <t>A 9541-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45946.3859375</v>
+        <v>45359</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12084,14 +12084,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 6863-2026</t>
+          <t>A 51684-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46057.44170138889</v>
+        <v>45951</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12141,14 +12141,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 6827-2026</t>
+          <t>A 35740-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46057</v>
+        <v>45860.53292824074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12198,14 +12198,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 6873-2026</t>
+          <t>A 35737-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46057.4528587963</v>
+        <v>45860.50186342592</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12255,14 +12255,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 6638-2026</t>
+          <t>A 29133-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46056.53358796296</v>
+        <v>44358</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12274,8 +12274,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12312,14 +12317,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 32768-2025</t>
+          <t>A 52718-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45839</v>
+        <v>45953</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12332,7 +12337,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12369,14 +12374,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 51627-2025</t>
+          <t>A 16095-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45951.41956018518</v>
+        <v>45749.91583333333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12394,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12426,14 +12431,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 51684-2025</t>
+          <t>A 53194-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45951</v>
+        <v>45958.57077546296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12451,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12483,14 +12488,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 52718-2025</t>
+          <t>A 53570-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45953</v>
+        <v>45960.41339120371</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12508,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12547,7 +12552,7 @@
         <v>45707.42396990741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12609,7 @@
         <v>45691.31946759259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12654,14 +12659,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 7514-2026</t>
+          <t>A 37683-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46059.59224537037</v>
+        <v>45159</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12679,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12711,14 +12716,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 865-2026</t>
+          <t>A 868-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46030</v>
+        <v>46030.42975694445</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12736,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12768,14 +12773,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 53194-2025</t>
+          <t>A 32768-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45958.57077546296</v>
+        <v>45839</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12788,7 +12793,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.4</v>
+        <v>7.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12825,14 +12830,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 21355-2022</t>
+          <t>A 51677-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44705</v>
+        <v>45951</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12845,7 +12850,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12882,14 +12887,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 53570-2025</t>
+          <t>A 54998-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45960.41339120371</v>
+        <v>45967.59869212963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12902,7 +12907,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12939,14 +12944,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 7266-2026</t>
+          <t>A 54911-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46058.60915509259</v>
+        <v>45967</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12959,7 +12964,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12996,14 +13001,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 37683-2023</t>
+          <t>A 54691-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45159</v>
+        <v>45966.45513888889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13016,7 +13021,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13053,14 +13058,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 4318-2026</t>
+          <t>A 58103-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46045.44894675926</v>
+        <v>44900.64357638889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13073,7 +13078,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13110,14 +13115,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 63901-2025</t>
+          <t>A 39694-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46020.661875</v>
+        <v>45552.56195601852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13130,7 +13135,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13167,14 +13172,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 63992-2025</t>
+          <t>A 8117-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46021.37421296296</v>
+        <v>45707.74923611111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13187,7 +13192,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13224,14 +13229,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 58103-2022</t>
+          <t>A 59930-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44900.64357638889</v>
+        <v>45993.40084490741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13244,7 +13249,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13281,14 +13286,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 39694-2024</t>
+          <t>A 60094-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45552.56195601852</v>
+        <v>45993.73243055555</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13301,7 +13306,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13338,14 +13343,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 8117-2025</t>
+          <t>A 8772-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45707.74923611111</v>
+        <v>45356.55128472222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13358,7 +13363,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13395,14 +13400,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 51677-2025</t>
+          <t>A 39685-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45951</v>
+        <v>45552.55456018518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13415,7 +13420,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13452,14 +13457,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 54998-2025</t>
+          <t>A 46783-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45967.59869212963</v>
+        <v>45198</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13471,8 +13476,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13509,14 +13519,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 54911-2025</t>
+          <t>A 1955-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45967</v>
+        <v>46035.61134259259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13529,7 +13539,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13566,14 +13576,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 54691-2025</t>
+          <t>A 45806-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45966.45513888889</v>
+        <v>45189</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13586,7 +13596,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13623,14 +13633,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 8772-2024</t>
+          <t>A 10358-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45356.55128472222</v>
+        <v>45365.6053125</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13642,8 +13652,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13680,14 +13695,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 39685-2024</t>
+          <t>A 44051-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45552.55456018518</v>
+        <v>45572.59581018519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13700,7 +13715,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13737,14 +13752,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 63991-2025</t>
+          <t>A 56020-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46021.37177083334</v>
+        <v>44477.45230324074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13757,7 +13772,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13794,14 +13809,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 46783-2023</t>
+          <t>A 8021-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45198</v>
+        <v>45707.57689814815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13813,13 +13828,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13856,14 +13866,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 45806-2023</t>
+          <t>A 21355-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45189</v>
+        <v>44705</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13876,7 +13886,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13913,14 +13923,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 10358-2024</t>
+          <t>A 19943-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45365.6053125</v>
+        <v>45771.64927083333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13932,13 +13942,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13975,14 +13980,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 44051-2024</t>
+          <t>A 60716-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45572.59581018519</v>
+        <v>45996.63631944444</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13995,7 +14000,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14032,14 +14037,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 56804-2025</t>
+          <t>A 7471-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45978.44596064815</v>
+        <v>44606</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14052,7 +14057,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14089,14 +14094,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 56020-2021</t>
+          <t>A 61296-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44477.45230324074</v>
+        <v>46000</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14109,7 +14114,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14146,14 +14151,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 8021-2025</t>
+          <t>A 46780-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45707.57689814815</v>
+        <v>45198.65056712963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14165,8 +14170,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14203,14 +14213,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 56812-2025</t>
+          <t>A 14323-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45978.45539351852</v>
+        <v>45393.69707175926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14222,13 +14232,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>19.6</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14265,14 +14270,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 8338-2026</t>
+          <t>A 61295-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46064.63479166666</v>
+        <v>46000</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14285,7 +14290,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14322,14 +14327,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 57508-2025</t>
+          <t>A 12714-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45980.60038194444</v>
+        <v>45000.69547453704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14342,7 +14347,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14379,14 +14384,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 57501-2025</t>
+          <t>A 10010-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45980.59248842593</v>
+        <v>44985.61200231482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14399,7 +14404,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14436,14 +14441,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 57504-2025</t>
+          <t>A 10013-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45980.59481481482</v>
+        <v>44985.61400462963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14456,7 +14461,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14493,14 +14498,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 57420-2025</t>
+          <t>A 14235-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45980.45703703703</v>
+        <v>45009</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14513,7 +14518,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.7</v>
+        <v>13.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14550,14 +14555,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 19943-2025</t>
+          <t>A 37135-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45771.64927083333</v>
+        <v>45539.57982638889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14570,7 +14575,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14607,14 +14612,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 58123-2025</t>
+          <t>A 23607-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45982.61234953703</v>
+        <v>45454</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14627,7 +14632,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14664,14 +14669,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 7471-2022</t>
+          <t>A 61297-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44606</v>
+        <v>46000</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14684,7 +14689,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14721,14 +14726,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 46780-2023</t>
+          <t>A 21353-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45198.65056712963</v>
+        <v>44705.66621527778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14740,13 +14745,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14783,14 +14783,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 14323-2024</t>
+          <t>A 62090-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45393.69707175926</v>
+        <v>46006.38003472222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14840,14 +14840,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 7263-2026</t>
+          <t>A 39092-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>46058</v>
+        <v>45548</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14859,8 +14859,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14897,14 +14902,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 12714-2023</t>
+          <t>A 39096-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45000.69547453704</v>
+        <v>45548</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14916,8 +14921,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14954,14 +14964,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 10010-2023</t>
+          <t>A 39532-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44985.61200231482</v>
+        <v>45551</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14973,8 +14983,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15011,14 +15026,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 10013-2023</t>
+          <t>A 62095-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44985.61400462963</v>
+        <v>46006.38694444444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15031,7 +15046,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15068,14 +15083,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 14235-2023</t>
+          <t>A 36690-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45009</v>
+        <v>45537.66780092593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15088,7 +15103,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>13.8</v>
+        <v>0.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15125,14 +15140,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 37135-2024</t>
+          <t>A 5090-2026</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45539.57982638889</v>
+        <v>46049.55262731481</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15145,7 +15160,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15182,14 +15197,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 23607-2024</t>
+          <t>A 27613-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45454</v>
+        <v>45097</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15202,7 +15217,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15239,14 +15254,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 21353-2022</t>
+          <t>A 750-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44705.66621527778</v>
+        <v>45665.44402777778</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15258,8 +15273,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15296,14 +15316,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 868-2026</t>
+          <t>A 12548-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46030.42975694445</v>
+        <v>45379.65076388889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15353,14 +15373,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 59930-2025</t>
+          <t>A 5719-2026</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45993.40084490741</v>
+        <v>46051.54070601852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15373,7 +15393,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15410,14 +15430,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 60094-2025</t>
+          <t>A 35420-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45993.73243055555</v>
+        <v>45146</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15430,7 +15450,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15467,14 +15487,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 39092-2024</t>
+          <t>A 26769-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45548</v>
+        <v>44739</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15486,13 +15506,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15529,14 +15544,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 39096-2024</t>
+          <t>A 17082-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45548</v>
+        <v>45412.49434027778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15548,13 +15563,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15591,14 +15601,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 1955-2026</t>
+          <t>A 9066-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46035.61134259259</v>
+        <v>45357</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15611,7 +15621,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15648,14 +15658,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 39532-2024</t>
+          <t>A 5400-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45551</v>
+        <v>45692.64164351852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15667,13 +15677,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15710,14 +15715,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 36690-2024</t>
+          <t>A 6863-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45537.66780092593</v>
+        <v>46057.44170138889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15730,7 +15735,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15767,14 +15772,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 27613-2023</t>
+          <t>A 61005-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45097</v>
+        <v>45645</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15787,7 +15792,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15824,14 +15829,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 750-2025</t>
+          <t>A 6827-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45665.44402777778</v>
+        <v>46057</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15843,13 +15848,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15886,14 +15886,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 12548-2024</t>
+          <t>A 6873-2026</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45379.65076388889</v>
+        <v>46057.4528587963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15943,14 +15943,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 60716-2025</t>
+          <t>A 6638-2026</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45996.63631944444</v>
+        <v>46056.53358796296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16000,14 +16000,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 35420-2023</t>
+          <t>A 7514-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45146</v>
+        <v>46059.59224537037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16057,14 +16057,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 26769-2022</t>
+          <t>A 865-2026</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44739</v>
+        <v>46030</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16114,14 +16114,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 61296-2025</t>
+          <t>A 11346-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>46000</v>
+        <v>45372.33732638889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16171,14 +16171,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 17082-2024</t>
+          <t>A 9070-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45412.49434027778</v>
+        <v>45357</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16228,14 +16228,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 9066-2024</t>
+          <t>A 3933-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45357</v>
+        <v>44952.35163194445</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16285,14 +16285,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 61295-2025</t>
+          <t>A 7945-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>46000</v>
+        <v>45707.40759259259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>4.3</v>
+        <v>8.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16342,14 +16342,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 5400-2025</t>
+          <t>A 4318-2026</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45692.64164351852</v>
+        <v>46045.44894675926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16399,14 +16399,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 61005-2024</t>
+          <t>A 73166-2021</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45645</v>
+        <v>44550</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16456,14 +16456,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 11346-2024</t>
+          <t>A 10481-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45372.33732638889</v>
+        <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16513,14 +16513,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 9070-2024</t>
+          <t>A 63901-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45357</v>
+        <v>46020.661875</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16570,14 +16570,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 3933-2023</t>
+          <t>A 63992-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44952.35163194445</v>
+        <v>46021.37421296296</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16627,14 +16627,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 7945-2025</t>
+          <t>A 10463-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45707.40759259259</v>
+        <v>44623</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>8.9</v>
+        <v>1.5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16684,14 +16684,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 73166-2021</t>
+          <t>A 51452-2021</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44550</v>
+        <v>44460</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16703,8 +16703,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16741,14 +16746,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 10481-2023</t>
+          <t>A 23349-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44981</v>
+        <v>45076</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16761,7 +16766,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16798,14 +16803,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 10463-2022</t>
+          <t>A 14329-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44623</v>
+        <v>45393.70334490741</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16818,7 +16823,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16855,14 +16860,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 51452-2021</t>
+          <t>A 25963-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44460</v>
+        <v>45467.67300925926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16874,13 +16879,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16913,18 +16913,38 @@
         <v>0</v>
       </c>
       <c r="R275" s="2" t="inlineStr"/>
+      <c r="U275">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0604/knärot/A 25963-2024 karta knärot.png", "A 25963-2024")</f>
+        <v/>
+      </c>
+      <c r="V275">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0604/klagomål/A 25963-2024 FSC-klagomål.docx", "A 25963-2024")</f>
+        <v/>
+      </c>
+      <c r="W275">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0604/klagomålsmail/A 25963-2024 FSC-klagomål mail.docx", "A 25963-2024")</f>
+        <v/>
+      </c>
+      <c r="X275">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0604/tillsyn/A 25963-2024 tillsynsbegäran.docx", "A 25963-2024")</f>
+        <v/>
+      </c>
+      <c r="Y275">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0604/tillsynsmail/A 25963-2024 tillsynsbegäran mail.docx", "A 25963-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 23349-2023</t>
+          <t>A 63991-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45076</v>
+        <v>46021.37177083334</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16937,7 +16957,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16974,14 +16994,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 14329-2024</t>
+          <t>A 21812-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45393.70334490741</v>
+        <v>45068</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16994,7 +17014,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17031,14 +17051,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 25963-2024</t>
+          <t>A 13163-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45467.67300925926</v>
+        <v>45386.39376157407</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17051,7 +17071,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17084,38 +17104,18 @@
         <v>0</v>
       </c>
       <c r="R278" s="2" t="inlineStr"/>
-      <c r="U278">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0604/knärot/A 25963-2024 karta knärot.png", "A 25963-2024")</f>
-        <v/>
-      </c>
-      <c r="V278">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0604/klagomål/A 25963-2024 FSC-klagomål.docx", "A 25963-2024")</f>
-        <v/>
-      </c>
-      <c r="W278">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0604/klagomålsmail/A 25963-2024 FSC-klagomål mail.docx", "A 25963-2024")</f>
-        <v/>
-      </c>
-      <c r="X278">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0604/tillsyn/A 25963-2024 tillsynsbegäran.docx", "A 25963-2024")</f>
-        <v/>
-      </c>
-      <c r="Y278">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0604/tillsynsmail/A 25963-2024 tillsynsbegäran mail.docx", "A 25963-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 21812-2023</t>
+          <t>A 16957-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45068</v>
+        <v>45033</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17165,14 +17165,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 13163-2024</t>
+          <t>A 23715-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45386.39376157407</v>
+        <v>45077.65487268518</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>6.9</v>
+        <v>2.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17222,14 +17222,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 16957-2023</t>
+          <t>A 23716-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45033</v>
+        <v>45077.65918981482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17279,14 +17279,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 23715-2023</t>
+          <t>A 37690-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45077.65487268518</v>
+        <v>45159.56918981481</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17336,14 +17336,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 23716-2023</t>
+          <t>A 7263-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45077.65918981482</v>
+        <v>46058</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17393,14 +17393,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 37690-2023</t>
+          <t>A 52790-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45159.56918981481</v>
+        <v>45610</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17450,14 +17450,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 52790-2024</t>
+          <t>A 8338-2026</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45610</v>
+        <v>46064.63479166666</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17514,7 +17514,7 @@
         <v>44721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>45616</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17621,14 +17621,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 20219-2025</t>
+          <t>A 7266-2026</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45772.64790509259</v>
+        <v>46058</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17678,14 +17678,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 3189-2024</t>
+          <t>A 20219-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45316.66528935185</v>
+        <v>45772.64790509259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17735,14 +17735,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 6512-2023</t>
+          <t>A 3189-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44966.38243055555</v>
+        <v>45316.66528935185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17792,14 +17792,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 43613-2023</t>
+          <t>A 6512-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45184</v>
+        <v>44966.38243055555</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17849,14 +17849,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 12477-2023</t>
+          <t>A 43613-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44999</v>
+        <v>45184</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17906,14 +17906,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 24783-2023</t>
+          <t>A 12477-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45084.66478009259</v>
+        <v>44999</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17963,14 +17963,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 53251-2023</t>
+          <t>A 24783-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45229</v>
+        <v>45084.66478009259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18020,14 +18020,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 764-2025</t>
+          <t>A 53251-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45665.45333333333</v>
+        <v>45229</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18039,13 +18039,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G295" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18082,14 +18077,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 41144-2021</t>
+          <t>A 764-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44423</v>
+        <v>45665.45333333333</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18101,8 +18096,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G296" t="n">
-        <v>6.6</v>
+        <v>1.7</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18139,14 +18139,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 4836-2023</t>
+          <t>A 41144-2021</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44957</v>
+        <v>44423</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18196,14 +18196,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 63624-2023</t>
+          <t>A 4836-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45275</v>
+        <v>44957</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18253,14 +18253,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 37751-2024</t>
+          <t>A 63624-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45541</v>
+        <v>45275</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18310,14 +18310,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 6930-2024</t>
+          <t>A 37751-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45343</v>
+        <v>45541</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18367,14 +18367,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 1473-2024</t>
+          <t>A 6930-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45304.76762731482</v>
+        <v>45343</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18424,14 +18424,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 2199-2022</t>
+          <t>A 1473-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44578.50461805556</v>
+        <v>45304.76762731482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18481,14 +18481,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 26236-2024</t>
+          <t>A 2199-2022</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45468.62662037037</v>
+        <v>44578.50461805556</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18538,14 +18538,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 47293-2023</t>
+          <t>A 26236-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45202.47221064815</v>
+        <v>45468.62662037037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18557,13 +18557,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G304" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18600,14 +18595,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 48524-2024</t>
+          <t>A 47293-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45593</v>
+        <v>45202.47221064815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18619,8 +18614,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G305" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18657,14 +18657,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 56333-2022</t>
+          <t>A 48524-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44890</v>
+        <v>45593</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18714,14 +18714,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 56339-2022</t>
+          <t>A 56333-2022</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
         <v>44890</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18771,14 +18771,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 10155-2024</t>
+          <t>A 56339-2022</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45364.65658564815</v>
+        <v>44890</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18828,14 +18828,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 14338-2024</t>
+          <t>A 10155-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45393.72498842593</v>
+        <v>45364.65658564815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18885,14 +18885,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 49398-2022</t>
+          <t>A 14338-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>44859</v>
+        <v>45393.72498842593</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18904,13 +18904,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G310" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18947,14 +18942,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 18552-2025</t>
+          <t>A 49398-2022</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45763</v>
+        <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18972,7 +18967,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19009,14 +19004,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 47409-2022</t>
+          <t>A 18552-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44851</v>
+        <v>45763</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19028,8 +19023,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G312" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19066,14 +19066,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 11353-2024</t>
+          <t>A 47409-2022</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45372.34880787037</v>
+        <v>44851</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19123,14 +19123,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 9917-2022</t>
+          <t>A 11353-2024</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44620.7546412037</v>
+        <v>45372.34880787037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19180,14 +19180,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 10456-2023</t>
+          <t>A 9917-2022</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44981</v>
+        <v>44620.7546412037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19199,13 +19199,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G315" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19242,14 +19237,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 12533-2024</t>
+          <t>A 10456-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45379.6220949074</v>
+        <v>44981</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19261,8 +19256,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G316" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19299,14 +19299,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 33051-2023</t>
+          <t>A 12533-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45126</v>
+        <v>45379.6220949074</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19356,14 +19356,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 51185-2021</t>
+          <t>A 33051-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>44461.47802083333</v>
+        <v>45126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19413,14 +19413,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 49478-2023</t>
+          <t>A 51185-2021</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45205</v>
+        <v>44461.47802083333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19432,13 +19432,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G319" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19475,14 +19470,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 16506-2022</t>
+          <t>A 49478-2023</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44671</v>
+        <v>45205</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19496,11 +19491,11 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19537,14 +19532,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 8846-2024</t>
+          <t>A 16506-2022</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45356</v>
+        <v>44671</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19556,8 +19551,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G321" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19594,14 +19594,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 10355-2024</t>
+          <t>A 8846-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45365.60123842592</v>
+        <v>45356</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19613,13 +19613,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G322" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19656,14 +19651,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 10357-2024</t>
+          <t>A 10355-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45365.60304398148</v>
+        <v>45365.60123842592</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19681,7 +19676,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19718,14 +19713,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 30028-2023</t>
+          <t>A 10357-2024</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45110.32493055556</v>
+        <v>45365.60304398148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19737,8 +19732,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G324" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19775,14 +19775,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 10302-2024</t>
+          <t>A 30028-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45365.51081018519</v>
+        <v>45110.32493055556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19794,13 +19794,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G325" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19837,14 +19832,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 5372-2023</t>
+          <t>A 10302-2024</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>44959</v>
+        <v>45365.51081018519</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19856,8 +19851,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G326" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19894,14 +19894,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 17027-2023</t>
+          <t>A 5372-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45034.38628472222</v>
+        <v>44959</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19913,13 +19913,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G327" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19956,14 +19951,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 3553-2025</t>
+          <t>A 17027-2023</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45680</v>
+        <v>45034.38628472222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19975,8 +19970,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G328" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -20013,14 +20013,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 44671-2024</t>
+          <t>A 3553-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45574.53689814815</v>
+        <v>45680</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20033,7 +20033,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -20070,14 +20070,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 67414-2021</t>
+          <t>A 44671-2024</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>44524.29709490741</v>
+        <v>45574.53689814815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -20127,14 +20127,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 16928-2023</t>
+          <t>A 67414-2021</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45033</v>
+        <v>44524.29709490741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20184,14 +20184,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 38912-2024</t>
+          <t>A 16928-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45548</v>
+        <v>45033</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20203,13 +20203,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G332" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -20246,14 +20241,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 59507-2022</t>
+          <t>A 38912-2024</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>44900</v>
+        <v>45548</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20271,7 +20266,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -20308,14 +20303,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 23354-2023</t>
+          <t>A 59507-2022</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45076</v>
+        <v>44900</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20327,8 +20322,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G334" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20365,14 +20365,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 24784-2024</t>
+          <t>A 23354-2023</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45460.80543981482</v>
+        <v>45076</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20422,14 +20422,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 37343-2023</t>
+          <t>A 24784-2024</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45156</v>
+        <v>45460.80543981482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20479,14 +20479,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 9880-2024</t>
+          <t>A 37343-2023</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45363.45428240741</v>
+        <v>45156</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20536,14 +20536,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 23712-2023</t>
+          <t>A 9880-2024</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45077.65021990741</v>
+        <v>45363.45428240741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20593,14 +20593,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 26498-2023</t>
+          <t>A 23712-2023</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45092.50385416667</v>
+        <v>45077.65021990741</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20650,14 +20650,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 38794-2023</t>
+          <t>A 26498-2023</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45161</v>
+        <v>45092.50385416667</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20669,13 +20669,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G340" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20712,14 +20707,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 16306-2023</t>
+          <t>A 38794-2023</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45028</v>
+        <v>45161</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20731,8 +20726,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G341" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20769,14 +20769,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 54095-2024</t>
+          <t>A 16306-2023</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45616.51119212963</v>
+        <v>45028</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20826,14 +20826,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 16679-2024</t>
+          <t>A 54095-2024</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45408.68222222223</v>
+        <v>45616.51119212963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20883,14 +20883,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 22285-2021</t>
+          <t>A 16679-2024</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>44326</v>
+        <v>45408.68222222223</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20940,14 +20940,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 15091-2023</t>
+          <t>A 22285-2021</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45016.3665625</v>
+        <v>44326</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20997,14 +20997,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 8811-2023</t>
+          <t>A 15091-2023</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>44978.63289351852</v>
+        <v>45016.3665625</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -21054,14 +21054,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 11369-2024</t>
+          <t>A 8811-2023</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45372.40991898148</v>
+        <v>44978.63289351852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -21111,14 +21111,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 12238-2024</t>
+          <t>A 11369-2024</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45378.36734953704</v>
+        <v>45372.40991898148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -21168,14 +21168,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 11976-2023</t>
+          <t>A 12238-2024</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>44994</v>
+        <v>45378.36734953704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -21225,14 +21225,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 40563-2024</t>
+          <t>A 11976-2023</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45555.66153935185</v>
+        <v>44994</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -21282,14 +21282,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 43485-2023</t>
+          <t>A 40563-2024</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45184</v>
+        <v>45555.66153935185</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -21339,14 +21339,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 49451-2023</t>
+          <t>A 43485-2023</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45205</v>
+        <v>45184</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21358,13 +21358,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G352" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -21401,14 +21396,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 4833-2023</t>
+          <t>A 49451-2023</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>44957.66708333333</v>
+        <v>45205</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21420,8 +21415,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G353" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -21458,14 +21458,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 20767-2022</t>
+          <t>A 4833-2023</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>44700</v>
+        <v>44957.66708333333</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -21515,14 +21515,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 37708-2023</t>
+          <t>A 20767-2022</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45159</v>
+        <v>44700</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -21572,14 +21572,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 9069-2024</t>
+          <t>A 37708-2023</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>45357</v>
+        <v>45159</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21629,14 +21629,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 9071-2024</t>
+          <t>A 9069-2024</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
         <v>45357</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21686,14 +21686,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 51160-2021</t>
+          <t>A 9071-2024</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>44461</v>
+        <v>45357</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21743,14 +21743,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 25513-2023</t>
+          <t>A 51160-2021</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>45089</v>
+        <v>44461</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21800,14 +21800,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 15835-2024</t>
+          <t>A 25513-2023</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45404</v>
+        <v>45089</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21857,14 +21857,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 51331-2021</t>
+          <t>A 15835-2024</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>44461.62759259259</v>
+        <v>45404</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21914,14 +21914,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 5401-2025</t>
+          <t>A 51331-2021</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45692.64210648148</v>
+        <v>44461.62759259259</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21971,14 +21971,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 21026-2024</t>
+          <t>A 5401-2025</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>45439</v>
+        <v>45692.64210648148</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21990,13 +21990,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G363" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -22033,14 +22028,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 10301-2024</t>
+          <t>A 21026-2024</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45365.50953703704</v>
+        <v>45439</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22058,7 +22053,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -22095,14 +22090,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 10360-2024</t>
+          <t>A 10301-2024</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45365.60637731481</v>
+        <v>45365.50953703704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22120,7 +22115,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -22157,14 +22152,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 49070-2023</t>
+          <t>A 10360-2024</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>45204</v>
+        <v>45365.60637731481</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22178,11 +22173,11 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G366" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -22219,14 +22214,14 @@
     <row r="367" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A 49073-2023</t>
+          <t>A 49070-2023</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
         <v>45204</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22244,7 +22239,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -22281,14 +22276,14 @@
     <row r="368" ht="15" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>A 50069-2024</t>
+          <t>A 49073-2023</t>
         </is>
       </c>
       <c r="B368" s="1" t="n">
-        <v>45600.35842592592</v>
+        <v>45204</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22300,8 +22295,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G368" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -22338,14 +22338,14 @@
     <row r="369" ht="15" customHeight="1">
       <c r="A369" t="inlineStr">
         <is>
-          <t>A 38873-2023</t>
+          <t>A 50069-2024</t>
         </is>
       </c>
       <c r="B369" s="1" t="n">
-        <v>45161</v>
+        <v>45600.35842592592</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -22395,14 +22395,14 @@
     <row r="370" ht="15" customHeight="1">
       <c r="A370" t="inlineStr">
         <is>
-          <t>A 395-2022</t>
+          <t>A 38873-2023</t>
         </is>
       </c>
       <c r="B370" s="1" t="n">
-        <v>44565.70857638889</v>
+        <v>45161</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -22452,14 +22452,14 @@
     <row r="371" ht="15" customHeight="1">
       <c r="A371" t="inlineStr">
         <is>
-          <t>A 46784-2023</t>
+          <t>A 395-2022</t>
         </is>
       </c>
       <c r="B371" s="1" t="n">
-        <v>45198</v>
+        <v>44565.70857638889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22471,13 +22471,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G371" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -22514,14 +22509,14 @@
     <row r="372" ht="15" customHeight="1">
       <c r="A372" t="inlineStr">
         <is>
-          <t>A 65037-2023</t>
+          <t>A 46784-2023</t>
         </is>
       </c>
       <c r="B372" s="1" t="n">
-        <v>45282</v>
+        <v>45198</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22533,8 +22528,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G372" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -22571,14 +22571,14 @@
     <row r="373" ht="15" customHeight="1">
       <c r="A373" t="inlineStr">
         <is>
-          <t>A 20568-2025</t>
+          <t>A 65037-2023</t>
         </is>
       </c>
       <c r="B373" s="1" t="n">
-        <v>45775.66415509259</v>
+        <v>45282</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22590,13 +22590,8 @@
           <t>ANEBY</t>
         </is>
       </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G373" t="n">
-        <v>7.6</v>
+        <v>2.5</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -22633,14 +22628,14 @@
     <row r="374" ht="15" customHeight="1">
       <c r="A374" t="inlineStr">
         <is>
-          <t>A 12834-2023</t>
+          <t>A 20568-2025</t>
         </is>
       </c>
       <c r="B374" s="1" t="n">
-        <v>45001.48028935185</v>
+        <v>45775.66415509259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22652,8 +22647,13 @@
           <t>ANEBY</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G374" t="n">
-        <v>0.7</v>
+        <v>7.6</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -22690,14 +22690,14 @@
     <row r="375" ht="15" customHeight="1">
       <c r="A375" t="inlineStr">
         <is>
-          <t>A 21333-2025</t>
+          <t>A 12834-2023</t>
         </is>
       </c>
       <c r="B375" s="1" t="n">
-        <v>45782.36523148148</v>
+        <v>45001.48028935185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22710,7 +22710,7 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -22747,14 +22747,14 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>A 6305-2025</t>
+          <t>A 21333-2025</t>
         </is>
       </c>
       <c r="B376" s="1" t="n">
-        <v>45698.68236111111</v>
+        <v>45782.36523148148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45293</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45204</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45911.71143518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>45936.43067129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>46072.57541666667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>45709.46327546296</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>45293</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44747</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45544.66417824074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>45461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44740.37982638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44565</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>45547.40465277778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>45161</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44460</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>45792.64822916667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44327</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44299</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44327</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44455.61589120371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44533</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44439.65362268518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44532.66270833334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44739</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44455.61668981481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>44386.47817129629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>44357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>44747</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>44314</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>44743</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44539.41717592593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>44853</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>44585.77927083334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>44455.67060185185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44421</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>44853</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44343.65755787037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44624</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>44826.43283564815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>44624</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>44739</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>44826.45150462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44606</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44606</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44386</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44888</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44886.69478009259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44565.71951388889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44606.57155092592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>44503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44959.33334490741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>45419.79274305556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44888.55878472222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45702</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>45775.66797453703</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>45617.4812962963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>45468.63356481482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45107</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45359</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45126</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45769</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>45182.28321759259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>45205</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>45033</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>44985</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44888.51291666667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>45122.73332175926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>45365.59902777777</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>44847.3783912037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>45028</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>45384.36355324074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44852.52524305556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>45665.44925925926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>45363.44353009259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>45762</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>45727</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>45653.49950231481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>45300</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>45691.32311342593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>45461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>45141.54603009259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>45250.63565972223</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>45236</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45300</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>44678.64928240741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>45183</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>45205</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>45147.49393518519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>45304.77090277777</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>45475</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>45146.61756944445</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>45553.66359953704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>45586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>45586</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44860</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>45819.52043981481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>45819.51636574074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45819.51873842593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44482.87444444445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>45205</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>45608</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>45358.45503472222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>45889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>45889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>45330</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>45824.60515046296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>45840.49706018518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>45824</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>45539.60888888889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45202</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>45202</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45891.68484953704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45895.65793981482</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45827.63807870371</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45831</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>45897.60457175926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>45467.47898148148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>45357</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>45898.34591435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>45898.35165509259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44271</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45086</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>45617.47054398148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>45903.66241898148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>45838.53831018518</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>45838.5571412037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>44357</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>45124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>45909</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>44326.38244212963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45908</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45909.50524305556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45909.48194444444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>44482.86331018519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44481</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>45812.39982638889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45359</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>45911.59070601852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>45912.47421296296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44358</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45688</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45749.91583333333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45912.46119212963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45912.47230324074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>45911</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>45912.46006944445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>45912.4656712963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>45848.38053240741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>45918.46302083333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>45838</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>45919.57049768518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>45859.54253472222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>45860.53292824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>45707.42396990741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>45860.50186342592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>45691.31946759259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>45924.63803240741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>45924.58982638889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>45159</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44900.64357638889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>45552.56195601852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>45707.74923611111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>45356.55128472222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>45552.55456018518</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>45839</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>45936.65857638889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45936.43357638889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>45198</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>45936.43239583333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>45189</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>45365.6053125</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>45572.59581018519</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44477.45230324074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>45707.57689814815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>45771.64927083333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>45617.46487268519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>45946.3859375</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44606</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>45198.65056712963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>45393.69707175926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45951.41956018518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45000.69547453704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>45951</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44985.61200231482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44985.61400462963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>45009</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>45539.57982638889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>45953</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>45454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44705.66621527778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45548</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>45548</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>45958.57077546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>45960.41339120371</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>45551</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45537.66780092593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>45097</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45665.44402777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45379.65076388889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45967.59869212963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45967</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45966.45513888889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>45146</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>45412.49434027778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>45357</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>45692.64164351852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45978.44596064815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>45978.45539351852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45645</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45980.60038194444</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45980.59248842593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45980.59481481482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45372.33732638889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45980.45703703703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45357</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44952.35163194445</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45982.61234953703</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45707.40759259259</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44981</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44623</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44460</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45393.70334490741</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45467.67300925926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45068</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45386.39376157407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45993.40084490741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45993.73243055555</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45033</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45077.65487268518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45077.65918981482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>46035.61134259259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45159.56918981481</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>45996.63631944444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45610</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>46000</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44721</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45616</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>46000</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>46000</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45772.64790509259</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>46006.38003472222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45316.66528935185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44966.38243055555</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>46006.38694444444</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>46049.55262731481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45184</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44999</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45084.66478009259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45229</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>46051.54070601852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45665.45333333333</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44423</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45275</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>46057.44170138889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45541</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>46057</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>46057.4528587963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>46056.53358796296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45304.76762731482</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>46059.59224537037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>46030</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44578.50461805556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>46045.44894675926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>45468.62662037037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>45202.47221064815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>46020.661875</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>46021.37421296296</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45593</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>46021.37177083334</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>44890</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45364.65658564815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>45393.72498842593</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>44859</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>45763</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44851</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>46058</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>45372.34880787037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>46064.63479166666</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44620.7546412037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44981</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>46058</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>45379.6220949074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>45126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44461.47802083333</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>46030.42975694445</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45205</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>46073.37259259259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44671</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>45356</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>45365.60123842592</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45365.60304398148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>45110.32493055556</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>45365.51081018519</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44959</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>45034.38628472222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>45680</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>45574.53689814815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44524.29709490741</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>45033</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>45548</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44900</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>45076</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>45460.80543981482</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>45363.45428240741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>45077.65021990741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>45092.50385416667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45161</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45028</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45616.51119212963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45408.68222222223</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44326</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45016.3665625</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44978.63289351852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45372.40991898148</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45378.36734953704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44994</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45555.66153935185</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45184</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45205</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44957.66708333333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44700</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>45159</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>45357</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>45357</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44461</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>45089</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>45404</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44461.62759259259</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45692.64210648148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>45439</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>45365.50953703704</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>45365.60637731481</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45204</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45204</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>45600.35842592592</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>45161</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44565.70857638889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>45198</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>45282</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>45775.66415509259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45001.48028935185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45782.36523148148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45698.68236111111</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45594.49311342592</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45201.67722222222</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45398.58857638889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45796.3731712963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45653.50658564815</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45798.84574074074</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45798.84240740741</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45531.61946759259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45558.61712962963</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>45812.40204861111</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45293</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45204</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45911.71143518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>45936.43067129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>46072.57541666667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>45709.46327546296</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44677</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>45293</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44747</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45544.66417824074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>45461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44740.37982638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44565</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>45547.40465277778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>45161</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44460</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>45792.64822916667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44327</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44299</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44327</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44455.61589120371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44533</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44439.65362268518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44532.66270833334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44739</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44455.61668981481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>44386.47817129629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>44357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>44747</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>44314</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>44743</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44539.41717592593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>44853</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>44585.77927083334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>44455.67060185185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44421</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>44853</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44343.65755787037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44624</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>44826.43283564815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>44624</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>44739</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>44826.45150462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44606</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44606</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44386</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44888</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44886.69478009259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44565.71951388889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44606.57155092592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>44503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44959.33334490741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>45419.79274305556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44888.55878472222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>45007</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45702</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>45775.66797453703</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>45617.4812962963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>45468.63356481482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45107</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45359</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45126</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45769</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>45182.28321759259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>45205</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>45033</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>44985</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44888.51291666667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>45122.73332175926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>45365.59902777777</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>44847.3783912037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>45028</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>45384.36355324074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44852.52524305556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>45665.44925925926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>45363.44353009259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>45762</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>45727</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>45653.49950231481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>45300</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>45691.32311342593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>45461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>45141.54603009259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>45250.63565972223</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>45236</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>45300</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>44678.64928240741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>45183</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>45205</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>45147.49393518519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>45304.77090277777</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>45475</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>45146.61756944445</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>45553.66359953704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>45586</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>45586</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>44860</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>45819.52043981481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7454,7 +7454,7 @@
         <v>45819.51636574074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45819.51873842593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44482.87444444445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>45205</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>45608</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>45358.45503472222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>45889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>45889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>45330</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>45824.60515046296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>45840.49706018518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>45824</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>45539.60888888889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45202</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>45202</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45891.68484953704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45895.65793981482</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45827.63807870371</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45831</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>45897.60457175926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>45467.47898148148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>45357</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>45898.34591435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>45898.35165509259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44271</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45086</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>45617.47054398148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>45903.66241898148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>45838.53831018518</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>45838.5571412037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>44357</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>45124</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>45909</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>44326.38244212963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45908</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45909.50524305556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45909.48194444444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>44482.86331018519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44481</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>45812.39982638889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>45359</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>45911.59070601852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>45912.47421296296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44358</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45688</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45749.91583333333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45912.46119212963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45912.47230324074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>45911</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>45912.46006944445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>45912.4656712963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>45848.38053240741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>45918.46302083333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>45838</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>45919.57049768518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>45859.54253472222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>45860.53292824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>45707.42396990741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>45860.50186342592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>45691.31946759259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>45924.63803240741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>45924.58982638889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>45159</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44900.64357638889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>45552.56195601852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>45707.74923611111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>45356.55128472222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>45552.55456018518</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>45839</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>45936.65857638889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45936.43357638889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>45198</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>45936.43239583333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>45189</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>45365.6053125</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>45572.59581018519</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44477.45230324074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>45707.57689814815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>45771.64927083333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44705</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>45617.46487268519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>45946.3859375</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44606</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>45198.65056712963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>45393.69707175926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45951.41956018518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45000.69547453704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>45951</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44985.61200231482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44985.61400462963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>45009</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>45539.57982638889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>45953</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>45454</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44705.66621527778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45548</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>45548</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>45958.57077546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>45960.41339120371</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>45551</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45537.66780092593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>45097</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45665.44402777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45379.65076388889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>45951</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45967.59869212963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45967</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45966.45513888889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>45146</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>45412.49434027778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>45357</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>45692.64164351852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45978.44596064815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>45978.45539351852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45645</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45980.60038194444</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45980.59248842593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45980.59481481482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45372.33732638889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45980.45703703703</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45357</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44952.35163194445</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45982.61234953703</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45707.40759259259</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44981</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44623</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44460</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>45076</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45393.70334490741</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45467.67300925926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45068</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45386.39376157407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45993.40084490741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45993.73243055555</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45033</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45077.65487268518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45077.65918981482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>46035.61134259259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45159.56918981481</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>45996.63631944444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45610</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>46000</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44721</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45616</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>46000</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>46000</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45772.64790509259</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>46006.38003472222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45316.66528935185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44966.38243055555</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>46006.38694444444</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>46049.55262731481</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45184</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44999</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45084.66478009259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45229</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>46051.54070601852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45665.45333333333</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44423</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45275</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>46057.44170138889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45541</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>46057</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>46057.4528587963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>46056.53358796296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45304.76762731482</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>46059.59224537037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>46030</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44578.50461805556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>46045.44894675926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>45468.62662037037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>45202.47221064815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>46020.661875</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>46021.37421296296</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45593</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>46021.37177083334</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>44890</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45364.65658564815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>45393.72498842593</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>44859</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>45763</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44851</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>46058</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>45372.34880787037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>46064.63479166666</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44620.7546412037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44981</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>46058</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>45379.6220949074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>45126</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44461.47802083333</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>46030.42975694445</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45205</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>46073.37259259259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44671</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>45356</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>45365.60123842592</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45365.60304398148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>45110.32493055556</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>45365.51081018519</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44959</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>45034.38628472222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>45680</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>45574.53689814815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44524.29709490741</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>45033</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>45548</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44900</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>45076</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>45460.80543981482</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>45363.45428240741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>45077.65021990741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>45092.50385416667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45161</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45028</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45616.51119212963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45408.68222222223</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44326</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45016.3665625</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44978.63289351852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45372.40991898148</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45378.36734953704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44994</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45555.66153935185</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45184</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45205</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44957.66708333333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44700</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>45159</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>45357</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>45357</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44461</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>45089</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>45404</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44461.62759259259</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45692.64210648148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>45439</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>45365.50953703704</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>45365.60637731481</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45204</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45204</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>45600.35842592592</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>45161</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44565.70857638889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>45198</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>45282</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>45775.66415509259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45001.48028935185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45782.36523148148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45698.68236111111</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45594.49311342592</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45201.67722222222</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45398.58857638889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45796.3731712963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45653.50658564815</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45798.84574074074</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45798.84240740741</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45531.61946759259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45558.61712962963</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>45812.40204861111</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45293</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45204</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45911.71143518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>45936.43067129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>46072.57541666667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44677</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>45709.46327546296</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>45461</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>45547.40465277778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44747</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44460</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>45161</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44565</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>45544.66417824074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44740.37982638889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>45792.64822916667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44327</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44299</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44327</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44455.61589120371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44533</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44439.65362268518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44532.66270833334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44739</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44455.61668981481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>44386.47817129629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>44357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>44747</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>44314</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>44743</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44539.41717592593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>44853</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>44455.67060185185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>44585.77927083334</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44853</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>44421</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44343.65755787037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44624</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44826.43283564815</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>44621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>44624</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>44739</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>44826.45150462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44606</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44606</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44386</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44888</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44257</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44886.69478009259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44565.71951388889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44606.57155092592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>44503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>45033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>45771.64927083333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44423</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>45189</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>45749.91583333333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>44326.38244212963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>45205</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>45107</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45205</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45092.50385416667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45541</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45419.79274305556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45460.80543981482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>45250.63565972223</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>45393.70334490741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45393.72498842593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45461</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44957.66708333333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44852.52524305556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>45356.55128472222</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>45454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>45617.47054398148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45330</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>44890</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44890</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>45275</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45467.67300925926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>45156</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>45475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>45531.61946759259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>45665.45333333333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44859</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44999</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45558.61712962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>45205</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>45202</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>45202</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>45555.66153935185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>45840.49706018518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>45608</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>45617.46487268519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>45812.40204861111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>45889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>45889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>45358.45503472222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>45692.64164351852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45819.52043981481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>45819.51636574074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>45819.51873842593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>45386.39376157407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>45891.68484953704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>45824.60515046296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>45539.60888888889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>45824</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45895.65793981482</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45898.35165509259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44888.55878472222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45897.60457175926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45898.34591435185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45586</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>45586</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>45827.63807870371</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>45702</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>45903.66241898148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44271</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45831</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45838.53831018518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45908</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>45909.50524305556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>45838.5571412037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>45909</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>45357</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>45727</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>44966.38243055555</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>45034.38628472222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>45617.4812962963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>45359</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45909.48194444444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>45020</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44994</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44851</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>45912.47421296296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45357</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>45357</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>45912.46006944445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>45912.4656712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44461.62759259259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>45912.46119212963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>45468.63356481482</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>45911.59070601852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>45848.38053240741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45912.47230324074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>45688</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>45812.39982638889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>45009</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>45680</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45838</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>45645</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>45911</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>45548</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45141.54603009259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>45860.50186342592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>45159</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>45860.53292824074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>45859.54253472222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>45552.56195601852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45918.46302083333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>45379.65076388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>45919.57049768518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45184</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45924.63803240741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45924.58982638889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44482.87444444445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>45076</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44460</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>45028</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>45182.28321759259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>45653.49950231481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>45691.31946759259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44477.45230324074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>45691.32311342593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44358</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>45839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45229</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>45033</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44357</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45936.43239583333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45936.65857638889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>45936.43357638889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45772.64790509259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>45769</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44606</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>45016.3665625</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>45076</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>45946.3859375</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>45028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>45086</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45205</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45236</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45951</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44900.64357638889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>45951.41956018518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44461.47802083333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45089</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>45183</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>45953</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45110.32493055556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>45007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45384.36355324074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>45958.57077546296</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44900</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45077.65487268518</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45077.65918981482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44481</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44959</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45379.6220949074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>45122.73332175926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>45960.41339120371</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>45147.49393518519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45966.45513888889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>45951</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>45967.59869212963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45967</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45159.56918981481</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>44959.33334490741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45304.76762731482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45343</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>45468.62662037037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45978.44596064815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45198</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>45707.40759259259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>45365.6053125</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45978.45539351852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45552.55456018518</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45593</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45980.59248842593</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44461</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45980.45703703703</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45126</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45980.60038194444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>45539.57982638889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>45980.59481481482</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>45600.35842592592</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45982.61234953703</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>45616</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>45161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44578.50461805556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>45356</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>45548</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>45548</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45572.59581018519</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45124</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45000.69547453704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45357</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45068</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45993.40084490741</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45993.73243055555</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45084.66478009259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45996.63631944444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45616.51119212963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>46000</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45316.66528935185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45364.65658564815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>46000</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45372.34880787037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45372.40991898148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>46000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>45665.44925925926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>46006.38003472222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44705.66621527778</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44678.64928240741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>46006.38694444444</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44623</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>46049.55262731481</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45404</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>45198</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>45707.57689814815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>46051.54070601852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>46056.53358796296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44700</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44671</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>45282</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44721</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>46030</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>46057.44170138889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45159</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>46057.4528587963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>46057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>45762</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>46020.661875</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>46059.59224537037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45775.66797453703</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>46045.44894675926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>45300</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>46021.37177083334</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>45769</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>46021.37421296296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>45304.77090277777</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45365.59902777777</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>45763</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44847.3783912037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>46058</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>46030.42975694445</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>46058</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>46064.63479166666</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>46076.39295138889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44482.86331018519</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>45393.69707175926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>45365.60123842592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45365.60304398148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45574.53689814815</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>46073.37259259259</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44326</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44524.29709490741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44565.70857638889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45707.42396990741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>46035.61134259259</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44985</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44952.35163194445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44957</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44888.51291666667</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45363.44353009259</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45365.51081018519</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>45553.66359953704</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>45300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45184</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45372.33732638889</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>45198.65056712963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>45439</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44620.7546412037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44985.61200231482</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44985.61400462963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>45692.64210648148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>45551</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44981</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45665.44402777778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>45359</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>45205</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>45204</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>45204</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>45146.61756944445</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>45363.45428240741</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>45365.50953703704</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         <v>45378.36734953704</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45033</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         <v>44978.63289351852</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45412.49434027778</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>45202.47221064815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>45097</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>45707.74923611111</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>45365.60637731481</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>45408.68222222223</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>45467.47898148148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22209,7 +22209,7 @@
         <v>45077.65021990741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>45537.66780092593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45357</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45775.66415509259</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45782.36523148148</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45001.48028935185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45698.68236111111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45594.49311342592</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45201.67722222222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45398.58857638889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45796.3731712963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45653.50658564815</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>45798.84574074074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>45798.84240740741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>

--- a/Översikt ANEBY.xlsx
+++ b/Översikt ANEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45293</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45204</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45911.71143518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44565</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>45936.43067129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>46072.57541666667</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44677</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>45709.46327546296</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>45461</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>45547.40465277778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44747</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44460</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>45161</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44565</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45293</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>45544.66417824074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44740.37982638889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>45792.64822916667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44327</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44299</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44327</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44455.61589120371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44533</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44439.65362268518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44532.66270833334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44739</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44455.61668981481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>44386.47817129629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>44357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>44747</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>44314</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>44743</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44539.41717592593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>44853</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>44455.67060185185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>44585.77927083334</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44853</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>44421</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44343.65755787037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>44624</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>44826.43283564815</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>44621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>44624</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>44739</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>44739</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>44826.45150462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44606</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44606</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44386</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44888</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44257</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44886.69478009259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44565.71951388889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44606.57155092592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>44503</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>45033</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>45771.64927083333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44423</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>45189</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>45749.91583333333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>44326.38244212963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>45205</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>45107</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45205</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45092.50385416667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45541</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45419.79274305556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45460.80543981482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>45250.63565972223</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>45393.70334490741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45393.72498842593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45461</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44860</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44957.66708333333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44852.52524305556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>45356.55128472222</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>45454</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>45617.47054398148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45330</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>44890</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44890</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>45275</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45467.67300925926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>45156</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>45475</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>45531.61946759259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>45665.45333333333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44859</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44999</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45558.61712962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>45205</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>45202</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>45202</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>45555.66153935185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>45840.49706018518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>45608</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>45617.46487268519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>45812.40204861111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>45889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>45889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>45358.45503472222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>45692.64164351852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45819.52043981481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>45819.51636574074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>45819.51873842593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>45386.39376157407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>45891.68484953704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>45824.60515046296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>45539.60888888889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>45824</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45895.65793981482</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45898.35165509259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44888.55878472222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45897.60457175926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45898.34591435185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45586</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>45586</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>45827.63807870371</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>45702</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>45903.66241898148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44271</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45831</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45838.53831018518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45908</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>45909.50524305556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>45838.5571412037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>45909</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>45357</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>45727</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>44966.38243055555</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>45034.38628472222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>45617.4812962963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>45359</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45909.48194444444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>45020</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>44994</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>44851</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>45912.47421296296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45357</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>45357</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>45912.46006944445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>45912.4656712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44461.62759259259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>45912.46119212963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>45468.63356481482</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>45911.59070601852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>45848.38053240741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45912.47230324074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>45688</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>45812.39982638889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>45009</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>45680</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45838</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>45645</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>45911</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>45548</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45141.54603009259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>45860.50186342592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>45159</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>45860.53292824074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>45859.54253472222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>45552.56195601852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45918.46302083333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>45379.65076388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>45919.57049768518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45184</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45924.63803240741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45924.58982638889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44482.87444444445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>45076</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44460</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>45028</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>45182.28321759259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>45653.49950231481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>45691.31946759259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44981</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44477.45230324074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>45691.32311342593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44358</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>45839</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45229</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>45033</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44357</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45936.43239583333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45936.65857638889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>45936.43357638889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45772.64790509259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>45769</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44606</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>45016.3665625</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>45076</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>45946.3859375</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>45028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>45086</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45205</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>45236</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45951</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44900.64357638889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>45951.41956018518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>44461.47802083333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13177,7 +13177,7 @@
         <v>45089</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>45183</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>45953</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45110.32493055556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>45007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45384.36355324074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>45958.57077546296</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>44900</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>45077.65487268518</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45077.65918981482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44481</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44959</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45379.6220949074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>45122.73332175926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>45960.41339120371</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>45147.49393518519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45966.45513888889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>45951</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>45967.59869212963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45967</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45159.56918981481</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>44959.33334490741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45304.76762731482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45343</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>45468.62662037037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45978.44596064815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45198</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>45707.40759259259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>45365.6053125</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45978.45539351852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45552.55456018518</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45593</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45980.59248842593</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44461</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45980.45703703703</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45126</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45980.60038194444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>45539.57982638889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>45980.59481481482</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>45600.35842592592</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45982.61234953703</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>45616</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>45161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44578.50461805556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>45356</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>45548</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>45548</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45572.59581018519</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45124</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45126</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45000.69547453704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45357</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45068</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45993.40084490741</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45993.73243055555</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45084.66478009259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45996.63631944444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45616.51119212963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>46000</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45316.66528935185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45364.65658564815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>46000</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45372.34880787037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45372.40991898148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>46000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>45665.44925925926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>46006.38003472222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44705.66621527778</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45146</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44678.64928240741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>46006.38694444444</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44623</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>46049.55262731481</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45404</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>45198</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>45707.57689814815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>46051.54070601852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>46056.53358796296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44700</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44671</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>45282</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44721</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>46030</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>46057.44170138889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45159</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>46057.4528587963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>46057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>45762</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>46020.661875</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>46059.59224537037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45775.66797453703</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>46045.44894675926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>45300</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>46021.37177083334</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>45769</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>46021.37421296296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>45304.77090277777</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45365.59902777777</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>45763</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44847.3783912037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>46058</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>46030.42975694445</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>46058</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>46064.63479166666</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>46076.39295138889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44482.86331018519</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>45393.69707175926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>45365.60123842592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45365.60304398148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45574.53689814815</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>46073.37259259259</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44326</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44524.29709490741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44565.70857638889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45707.42396990741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>46035.61134259259</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44985</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44952.35163194445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44957</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44888.51291666667</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45363.44353009259</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45365.51081018519</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>45553.66359953704</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>45300</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45184</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45372.33732638889</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>45198.65056712963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>45439</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44620.7546412037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44985.61200231482</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44985.61400462963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>45692.64210648148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>45551</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44981</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45665.44402777778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>45359</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>45205</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>45204</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>45204</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>45146.61756944445</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>45363.45428240741</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>45365.50953703704</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         <v>45378.36734953704</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45033</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         <v>44978.63289351852</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45412.49434027778</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>45202.47221064815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>45097</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>45707.74923611111</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>45365.60637731481</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>45408.68222222223</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>45467.47898148148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22209,7 +22209,7 @@
         <v>45077.65021990741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>45537.66780092593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45357</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45775.66415509259</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45782.36523148148</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45001.48028935185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45698.68236111111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45594.49311342592</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45201.67722222222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45398.58857638889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45796.3731712963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45653.50658564815</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>45798.84574074074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>45798.84240740741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
